--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C91D98-3694-403B-8059-8965CAFEF41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC9BE1-58A3-4F93-AAC7-B4EA923B7EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>LangScr, MathScr</t>
+    <t>Ones, LangScr, MathScr</t>
   </si>
   <si>
     <t>y</t>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC9BE1-58A3-4F93-AAC7-B4EA923B7EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59962F-584E-4C64-AED7-15DF8F8CD805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59962F-584E-4C64-AED7-15DF8F8CD805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148F0A3-6FBE-4F81-B5FB-9CFE8EDBA94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148F0A3-6FBE-4F81-B5FB-9CFE8EDBA94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F04B1-DF05-4D82-A7F5-ABD92676DBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F04B1-DF05-4D82-A7F5-ABD92676DBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA05651-D07A-4C97-BBBE-72C7D8FAEA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA05651-D07A-4C97-BBBE-72C7D8FAEA1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13F6A3-5386-4F53-B97A-4CFC000A14E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_num_PSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_num_PSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13F6A3-5386-4F53-B97A-4CFC000A14E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48804BBF-8D28-4A2B-8C4E-4609D4630F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
